--- a/QHKH/BIEUMAUEXCEL/BM08CT.xlsx
+++ b/QHKH/BIEUMAUEXCEL/BM08CT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\QHKH\QHKH\BIEUMAUEXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F053522-00CF-40BF-A29D-42BF31E4B800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9089A60C-3854-477D-B1F5-B1AB79F89081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{282F4766-5114-46B0-B433-2EEA91293C5C}"/>
+    <workbookView xWindow="0" yWindow="705" windowWidth="21600" windowHeight="14895" xr2:uid="{282F4766-5114-46B0-B433-2EEA91293C5C}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="82">
   <si>
     <t>STT</t>
   </si>
@@ -275,6 +275,9 @@
   </si>
   <si>
     <t>KẾ HOẠCH ĐƯA ĐẤT CHƯA SỬ DỤNG VÀO SỬ DỤNG (20..-20..) PHÂN THEO NĂM CỦA TỈNH (THÀNH PHỐ) …</t>
+  </si>
+  <si>
+    <t>BM08/CT</t>
   </si>
 </sst>
 </file>
@@ -382,7 +385,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -423,6 +426,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -741,7 +747,7 @@
   <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -753,6 +759,7 @@
     <col min="7" max="7" width="11.28515625" customWidth="1"/>
     <col min="8" max="8" width="12.140625" customWidth="1"/>
     <col min="9" max="9" width="13.140625" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
@@ -771,7 +778,7 @@
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
     </row>
-    <row r="2" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -779,7 +786,9 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
+      <c r="L2" s="15" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
